--- a/data/trans_dic/P0901-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P0901-Estudios-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.3102138210701225</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.3714172908316805</v>
+        <v>0.3714172908316804</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.149334764955892</v>
+        <v>0.1477259477405444</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2217624077426516</v>
+        <v>0.2212323002993564</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1987522969738588</v>
+        <v>0.2033557088515485</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2525713677629288</v>
+        <v>0.2529819683425764</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2404074343821765</v>
+        <v>0.2419619596683338</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3459892043546095</v>
+        <v>0.3466249421573978</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3389825814273138</v>
+        <v>0.3403739934287104</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4043254857332315</v>
+        <v>0.4046642175030229</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2079712274612441</v>
+        <v>0.2077634315869786</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3018808230328023</v>
+        <v>0.3014811862329698</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2886464830762129</v>
+        <v>0.2878047879372538</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3507262684251143</v>
+        <v>0.348193247239358</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1949466177320642</v>
+        <v>0.1948618052678639</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2771536156583991</v>
+        <v>0.2814103334824664</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2598781566239286</v>
+        <v>0.2618374493703503</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3235020876364929</v>
+        <v>0.3254631881821553</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2912407401323484</v>
+        <v>0.2884370649784928</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.399719868079211</v>
+        <v>0.401435078771044</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4025020740807955</v>
+        <v>0.4070662018688044</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4572775666713338</v>
+        <v>0.459613628235461</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2423498527605214</v>
+        <v>0.2420378071027078</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3402638038830462</v>
+        <v>0.3411637464082966</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.331826539398776</v>
+        <v>0.3320349999072575</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3939037166009302</v>
+        <v>0.3943369227661092</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04533058227412606</v>
+        <v>0.0453832986540041</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05912008633491141</v>
+        <v>0.0590604573530779</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06170782185565333</v>
+        <v>0.0610588188366807</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1037913813571805</v>
+        <v>0.1034881696973389</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.08506747928317018</v>
+        <v>0.08756052172961144</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1001910691088913</v>
+        <v>0.1017384213529841</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1168967025861832</v>
+        <v>0.1177506007459378</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1442120052358244</v>
+        <v>0.1415875141761607</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06874155134219018</v>
+        <v>0.06819175685127865</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.08326017007036504</v>
+        <v>0.08202574274698092</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.09128961226681453</v>
+        <v>0.09181464538078081</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1266292014100667</v>
+        <v>0.1271042602515751</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06755641281659937</v>
+        <v>0.06752918015555999</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0820465014473699</v>
+        <v>0.08308338872524851</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.08497894435953371</v>
+        <v>0.08472831649295416</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1326369694051364</v>
+        <v>0.133612065840001</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1174085788330999</v>
+        <v>0.117948385722651</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1332762220784813</v>
+        <v>0.1336401232204368</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1487257000858107</v>
+        <v>0.1489972829800712</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1702266757411176</v>
+        <v>0.1705726263325778</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08759596378986792</v>
+        <v>0.08666273379933719</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1021939468982341</v>
+        <v>0.1022391426356202</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1132760165778526</v>
+        <v>0.1120583512752483</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1469289745384333</v>
+        <v>0.1458233416571146</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.05523347325195732</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.07672199072627363</v>
+        <v>0.0767219907262736</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.0910292930719234</v>
@@ -969,7 +969,7 @@
         <v>0.07793773166837539</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.09058408916238005</v>
+        <v>0.09058408916238003</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03059619125551581</v>
+        <v>0.02874788521845552</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04262429623035489</v>
+        <v>0.0408163033268726</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03577565855017888</v>
+        <v>0.03555660720460491</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.058220177654146</v>
+        <v>0.05752903347518456</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.06605013610291857</v>
+        <v>0.06685142711546661</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05662568330097464</v>
+        <v>0.05621257093765263</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07575428370890012</v>
+        <v>0.07503415539573563</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.08650522385163555</v>
+        <v>0.08521409209584639</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05176049795977765</v>
+        <v>0.05320944564135367</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.05168169301318808</v>
+        <v>0.05573355370946744</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.06168496651673369</v>
+        <v>0.06181548743078325</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.07725551531539421</v>
+        <v>0.07725544425748243</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06945725890397343</v>
+        <v>0.06507653282253671</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09440983519550841</v>
+        <v>0.09331761793558975</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07912676404437567</v>
+        <v>0.07984053750965978</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.09924338995858857</v>
+        <v>0.09996325079840949</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1201609167873899</v>
+        <v>0.1207364744673543</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1070277885919811</v>
+        <v>0.1106162349948965</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.133126700152044</v>
+        <v>0.1323328682562419</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1239278156820273</v>
+        <v>0.1241996189391692</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.08297968809858636</v>
+        <v>0.08586901169987578</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.08968837269871481</v>
+        <v>0.09289912053704238</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.09707698728506896</v>
+        <v>0.09718006347292571</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1061925069807147</v>
+        <v>0.1053064037423068</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.1507644927383312</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1726883448930154</v>
+        <v>0.1726883448930155</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.08045319006463482</v>
+        <v>0.07932654752445274</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1088115440286723</v>
+        <v>0.1089776602606743</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09484579303670145</v>
+        <v>0.09480522071619506</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1253354025318812</v>
+        <v>0.1256772761250396</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1507234917242171</v>
+        <v>0.1517604175701385</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1945979356863647</v>
+        <v>0.1929790306204631</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1800313620885299</v>
+        <v>0.1814373520275146</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1957575398771016</v>
+        <v>0.1956871627481014</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1192906726415923</v>
+        <v>0.1187029444064466</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1559603883781016</v>
+        <v>0.1562485689284136</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1411084259945418</v>
+        <v>0.1418508989330499</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.164919800159933</v>
+        <v>0.1643850341908736</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1014660526857801</v>
+        <v>0.1003699306674949</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1327886061258827</v>
+        <v>0.1326774542706696</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.115711166041759</v>
+        <v>0.1161113048438556</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1497937304219114</v>
+        <v>0.1485650820633911</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1763159697134691</v>
+        <v>0.1775098810229274</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2231277651323818</v>
+        <v>0.2211526971268563</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2074426767859426</v>
+        <v>0.2098701897773753</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2173735786406657</v>
+        <v>0.218764329816577</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1355932162914225</v>
+        <v>0.1355903025343252</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1740920520680994</v>
+        <v>0.1744688326261263</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1590475155563489</v>
+        <v>0.1597189399583556</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1810873585044013</v>
+        <v>0.1813633461277943</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>154072</v>
+        <v>152412</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>216139</v>
+        <v>215623</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>149928</v>
+        <v>153401</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>146120</v>
+        <v>146357</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>316163</v>
+        <v>318207</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>462863</v>
+        <v>463714</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>337172</v>
+        <v>338556</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>332371</v>
+        <v>332649</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>488074</v>
+        <v>487586</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>698081</v>
+        <v>697157</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>504845</v>
+        <v>503373</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>491216</v>
+        <v>487668</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>201131</v>
+        <v>201043</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>270126</v>
+        <v>274275</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>196038</v>
+        <v>197516</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>187155</v>
+        <v>188290</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>383014</v>
+        <v>379327</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>534744</v>
+        <v>537039</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>400353</v>
+        <v>404892</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>375900</v>
+        <v>377820</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>568755</v>
+        <v>568023</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>786840</v>
+        <v>788921</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>580367</v>
+        <v>580732</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>551689</v>
+        <v>552295</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>76763</v>
+        <v>76853</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>116109</v>
+        <v>115992</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>128129</v>
+        <v>126782</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>231287</v>
+        <v>230611</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>135059</v>
+        <v>139017</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>176116</v>
+        <v>178836</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>232426</v>
+        <v>234124</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>312897</v>
+        <v>307203</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>225547</v>
+        <v>223743</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>309874</v>
+        <v>305280</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>371064</v>
+        <v>373198</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>556926</v>
+        <v>559016</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>114401</v>
+        <v>114355</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>161136</v>
+        <v>163172</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>176449</v>
+        <v>175929</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>295566</v>
+        <v>297739</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>186406</v>
+        <v>187263</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>234273</v>
+        <v>234913</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>295711</v>
+        <v>296251</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>369341</v>
+        <v>370092</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>287410</v>
+        <v>284348</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>380341</v>
+        <v>380510</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>460431</v>
+        <v>455482</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>646206</v>
+        <v>641344</v>
       </c>
     </row>
     <row r="12">
@@ -1823,37 +1823,37 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>16871</v>
+        <v>15852</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>20510</v>
+        <v>19640</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>19565</v>
+        <v>19445</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>41429</v>
+        <v>40937</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>31467</v>
+        <v>31849</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>25970</v>
+        <v>25781</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>41600</v>
+        <v>41204</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>63571</v>
+        <v>62622</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>53200</v>
+        <v>54690</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>48571</v>
+        <v>52379</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>67608</v>
+        <v>67751</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>111747</v>
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>38299</v>
+        <v>35884</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>45428</v>
+        <v>44903</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>43273</v>
+        <v>43664</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>70620</v>
+        <v>71133</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>57246</v>
+        <v>57520</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>49086</v>
+        <v>50732</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>73105</v>
+        <v>72669</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>91072</v>
+        <v>91271</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>85288</v>
+        <v>88258</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>84290</v>
+        <v>87308</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>106399</v>
+        <v>106512</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>153604</v>
+        <v>152322</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>263608</v>
+        <v>259917</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>372112</v>
+        <v>372680</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>320353</v>
+        <v>320216</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>440993</v>
+        <v>442195</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>509324</v>
+        <v>512828</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>691646</v>
+        <v>685892</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>635889</v>
+        <v>640855</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>729514</v>
+        <v>729251</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>793968</v>
+        <v>790056</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1087670</v>
+        <v>1089679</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>975019</v>
+        <v>980150</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1194863</v>
+        <v>1190989</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>332458</v>
+        <v>328866</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>454108</v>
+        <v>453728</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>390828</v>
+        <v>392180</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>527049</v>
+        <v>522726</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>595806</v>
+        <v>599841</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>793047</v>
+        <v>786028</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>732708</v>
+        <v>741282</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>810068</v>
+        <v>815251</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>902473</v>
+        <v>902454</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1214120</v>
+        <v>1216748</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1098973</v>
+        <v>1103613</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1311999</v>
+        <v>1313999</v>
       </c>
     </row>
     <row r="20">
